--- a/cwl_our_clan_only.xlsx
+++ b/cwl_our_clan_only.xlsx
@@ -2531,7 +2531,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F90"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4243,7 +4243,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>KokomiSama</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -4258,7 +4258,7 @@
         <v>100</v>
       </c>
       <c r="F66" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
     </row>
     <row r="67">
@@ -4269,7 +4269,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>20220216</t>
+          <t>KokomiSama</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -4284,7 +4284,7 @@
         <v>100</v>
       </c>
       <c r="F67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68">
@@ -4295,7 +4295,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>淼颜玺玺</t>
+          <t>20220216</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -4310,7 +4310,7 @@
         <v>100</v>
       </c>
       <c r="F68" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Last iNsanity</t>
+          <t>淼颜玺玺</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -4336,7 +4336,7 @@
         <v>100</v>
       </c>
       <c r="F69" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="70">
@@ -4347,7 +4347,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>宾格憨皮别偷家彡</t>
+          <t>Last iNsanity</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -4362,7 +4362,7 @@
         <v>100</v>
       </c>
       <c r="F70" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="71">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>starcry</t>
+          <t>宾格憨皮别偷家彡</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -4388,7 +4388,7 @@
         <v>100</v>
       </c>
       <c r="F71" t="n">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="72">
@@ -4399,7 +4399,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>yardground</t>
+          <t>starcry</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -4414,7 +4414,7 @@
         <v>100</v>
       </c>
       <c r="F72" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>crash bang</t>
+          <t>yardground</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -4440,7 +4440,7 @@
         <v>100</v>
       </c>
       <c r="F73" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74">
@@ -4451,7 +4451,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ljwa</t>
+          <t>crash bang</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -4466,7 +4466,7 @@
         <v>100</v>
       </c>
       <c r="F74" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
@@ -4477,22 +4477,412 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
+          <t>ljwa</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>3</v>
+      </c>
+      <c r="E75" t="n">
+        <v>100</v>
+      </c>
+      <c r="F75" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>%238QVJJVUJ8</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
           <t>20240519bl</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>3</v>
-      </c>
-      <c r="E75" t="n">
-        <v>100</v>
-      </c>
-      <c r="F75" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" t="n">
+        <v>100</v>
+      </c>
+      <c r="F76" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>大道寺知世</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" t="n">
+        <v>100</v>
+      </c>
+      <c r="F77" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>微风细雨</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" t="n">
+        <v>100</v>
+      </c>
+      <c r="F78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>寒泉</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>3</v>
+      </c>
+      <c r="E79" t="n">
+        <v>100</v>
+      </c>
+      <c r="F79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>澄猫猫</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>3</v>
+      </c>
+      <c r="E80" t="n">
+        <v>100</v>
+      </c>
+      <c r="F80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>KokomiSama</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" t="n">
+        <v>100</v>
+      </c>
+      <c r="F81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>20220216</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>3</v>
+      </c>
+      <c r="E82" t="n">
+        <v>100</v>
+      </c>
+      <c r="F82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>淼颜玺玺</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>3</v>
+      </c>
+      <c r="E83" t="n">
+        <v>100</v>
+      </c>
+      <c r="F83" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Last iNsanity</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>3</v>
+      </c>
+      <c r="E84" t="n">
+        <v>100</v>
+      </c>
+      <c r="F84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>宾格憨皮别偷家彡</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>3</v>
+      </c>
+      <c r="E85" t="n">
+        <v>100</v>
+      </c>
+      <c r="F85" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>starcry</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" t="n">
+        <v>100</v>
+      </c>
+      <c r="F86" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>yardground</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2</v>
+      </c>
+      <c r="E87" t="n">
+        <v>71</v>
+      </c>
+      <c r="F87" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>crash bang</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" t="n">
+        <v>92</v>
+      </c>
+      <c r="F88" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>ljwa</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" t="n">
+        <v>100</v>
+      </c>
+      <c r="F89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>20240519bl</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" t="n">
+        <v>100</v>
+      </c>
+      <c r="F90" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -4506,7 +4896,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E61"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5768,7 +6158,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>澄猫猫</t>
+          <t>寒泉</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -5780,7 +6170,7 @@
         <v>2</v>
       </c>
       <c r="E55" t="n">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56">
@@ -5791,7 +6181,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>KokomiSama</t>
+          <t>澄猫猫</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -5803,7 +6193,7 @@
         <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>62</v>
+        <v>65</v>
       </c>
     </row>
     <row r="57">
@@ -5814,7 +6204,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>淼颜玺玺</t>
+          <t>周杰伦</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5823,10 +6213,10 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E57" t="n">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58">
@@ -5837,7 +6227,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>宾格憨皮别偷家彡</t>
+          <t>KokomiSama</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5849,7 +6239,7 @@
         <v>2</v>
       </c>
       <c r="E58" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59">
@@ -5860,7 +6250,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>starcry</t>
+          <t>20220216</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5869,10 +6259,10 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>100</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60">
@@ -5883,7 +6273,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>yardground</t>
+          <t>淼颜玺玺</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5892,10 +6282,10 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" t="n">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="61">
@@ -5906,19 +6296,226 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Last iNsanity</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2</v>
+      </c>
+      <c r="E61" t="n">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>%238QVJJVUJ8</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>宾格憨皮别偷家彡</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2</v>
+      </c>
+      <c r="E62" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>%238QVJJVUJ8</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>starcry</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>%238QVJJVUJ8</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>yardground</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>1</v>
+      </c>
+      <c r="E64" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>%238QVJJVUJ8</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>crash bang</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>3</v>
+      </c>
+      <c r="E65" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>%238QVJJVUJ8</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
           <t>ljwa</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Unknown</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
         <v>1</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E66" t="n">
         <v>70</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>%238QVJJVUJ8</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>20240519bl</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>3</v>
+      </c>
+      <c r="E67" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>微风细雨</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>3</v>
+      </c>
+      <c r="E68" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>20220216</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" t="n">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>%238QVVP8PL8</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>20240519bl</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" t="n">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
